--- a/AMOSTRA_e-SIC.xlsx
+++ b/AMOSTRA_e-SIC.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="2" documentId="8_{E138E9C0-4016-468F-B21F-6ED2EC3A7584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E658EBA6-D54B-420F-B40B-1736D80A17F3}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="17475" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Amostra - SIC" sheetId="1" r:id="rId1"/>
@@ -868,8 +868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" topLeftCell="B60" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/AMOSTRA_e-SIC.xlsx
+++ b/AMOSTRA_e-SIC.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="2" documentId="8_{E138E9C0-4016-468F-B21F-6ED2EC3A7584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E658EBA6-D54B-420F-B40B-1736D80A17F3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="17175" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Amostra - SIC" sheetId="1" r:id="rId1"/>
@@ -868,8 +868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B60" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/AMOSTRA_e-SIC.xlsx
+++ b/AMOSTRA_e-SIC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://caixa-my.sharepoint.com/personal/e514037_corp_caixa_gov_br/Documents/Área de Trabalho/hackathon-cgdf-acesso-informacao/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{E138E9C0-4016-468F-B21F-6ED2EC3A7584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E658EBA6-D54B-420F-B40B-1736D80A17F3}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{E138E9C0-4016-468F-B21F-6ED2EC3A7584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1647FA3-C7FF-4AAB-B580-B667DAFF39D4}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="18090" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Amostra - SIC" sheetId="1" r:id="rId1"/>
@@ -494,7 +494,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -510,6 +510,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,7 +553,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -551,6 +563,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -868,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1033,7 +1051,7 @@
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1265,7 +1283,7 @@
       <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1401,7 +1419,7 @@
       <c r="A66" s="3">
         <v>65</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1433,7 +1451,7 @@
       <c r="A70" s="3">
         <v>69</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="4" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1465,7 +1483,7 @@
       <c r="A74" s="3">
         <v>73</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="4" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1489,7 +1507,7 @@
       <c r="A77" s="3">
         <v>76</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="4" t="s">
         <v>77</v>
       </c>
     </row>
